--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ScottNak\Desktop\HH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ScottNak\Documents\HHtracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" topLeftCell="E69" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6318,16 +6318,16 @@
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <f t="shared" si="1"/>
-        <v>42204.711805555555</v>
+        <v>42205.586805555555</v>
       </c>
       <c r="B92" s="1">
-        <v>42204</v>
+        <v>42205</v>
       </c>
       <c r="C92" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="D92" s="2">
         <v>0.71180555555555547</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0.83680555555555547</v>
       </c>
       <c r="E92" t="s">
         <v>80</v>
@@ -6339,10 +6339,10 @@
         <v>74</v>
       </c>
       <c r="H92" s="1">
-        <v>42204</v>
+        <v>42205</v>
       </c>
       <c r="I92" s="1">
-        <v>42204</v>
+        <v>42205</v>
       </c>
       <c r="J92" s="2">
         <v>0.83680555555555547</v>
